--- a/target/test-classes/excelFiles/ebayTestData.xlsx
+++ b/target/test-classes/excelFiles/ebayTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Firefox_EbayTest" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="64">
   <si>
     <t>Value</t>
   </si>
@@ -73,9 +73,6 @@
     <t>saveScreenshot</t>
   </si>
   <si>
-    <t>Enter search text</t>
-  </si>
-  <si>
     <t>Click search button</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>Wait for product 1 link</t>
   </si>
   <si>
-    <t>Shopping cart page with product 2</t>
-  </si>
-  <si>
     <t>TC1-Search text</t>
   </si>
   <si>
@@ -209,6 +203,21 @@
   </si>
   <si>
     <t>TC10-Shopping cart page with product 2</t>
+  </si>
+  <si>
+    <t>shoppingcartpage</t>
+  </si>
+  <si>
+    <t>Check inside shopping cart</t>
+  </si>
+  <si>
+    <t>shoppingCartHeader</t>
+  </si>
+  <si>
+    <t>Enter search text for product 1</t>
+  </si>
+  <si>
+    <t>Enter search text for product 2</t>
   </si>
 </sst>
 </file>
@@ -561,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +604,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
@@ -607,27 +616,27 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -640,22 +649,22 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -668,16 +677,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
@@ -685,25 +694,25 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -713,25 +722,25 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -741,16 +750,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2">
         <v>20</v>
@@ -758,40 +767,40 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -801,7 +810,7 @@
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
@@ -813,27 +822,27 @@
         <v>3</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
@@ -846,22 +855,22 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>13</v>
@@ -874,25 +883,25 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
@@ -902,25 +911,25 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
@@ -930,16 +939,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2">
         <v>20</v>
@@ -947,46 +956,76 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -995,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1068,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
@@ -1041,27 +1080,27 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -1074,22 +1113,22 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -1102,16 +1141,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
@@ -1119,25 +1158,25 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1147,25 +1186,25 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -1175,16 +1214,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2">
         <v>20</v>
@@ -1192,40 +1231,40 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -1235,7 +1274,7 @@
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
@@ -1247,27 +1286,27 @@
         <v>3</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
@@ -1280,22 +1319,22 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>13</v>
@@ -1308,25 +1347,25 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
@@ -1336,25 +1375,25 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
@@ -1364,16 +1403,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2">
         <v>20</v>
@@ -1381,46 +1420,76 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
